--- a/ClimbDocs/ballistic.xlsx
+++ b/ClimbDocs/ballistic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconn-my.sharepoint.com/personal/mark_maciejewski_uconn_edu/Documents/Team195/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markm.CAM\PycharmProjects\scouting_python\ClimbDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{BDC93286-8777-46FF-86DA-92707FC06F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32BBF9DF-316B-4E60-86F4-277ACBE2D0AE}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1740" windowWidth="35745" windowHeight="15435" xr2:uid="{473A46FF-0106-4AF9-B823-FF1EEA163172}"/>
+    <workbookView xWindow="1770" yWindow="1740" windowWidth="35745" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>initial velocity (ft/s)</t>
   </si>
@@ -77,13 +76,31 @@
     <t>Distance to target (camera)</t>
   </si>
   <si>
-    <t>flight time (sec)</t>
+    <t>Flight time to target (s)</t>
+  </si>
+  <si>
+    <t>flight time for full range (s)</t>
+  </si>
+  <si>
+    <t>Varying both angle and initial velocity to hit x/y at zenith</t>
+  </si>
+  <si>
+    <t>Eq 11</t>
+  </si>
+  <si>
+    <t>a2+b2=c2</t>
+  </si>
+  <si>
+    <t>Eq 7/8</t>
+  </si>
+  <si>
+    <t>Eq 9/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,9 +145,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -133,7 +161,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -442,2015 +491,2647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66FF347-3D80-49DA-A5FD-0C688990EDDB}">
-  <dimension ref="A1:Q52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>42.17</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f>$A$3^2</f>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E3">
-        <f>SQRT($A$3^4-32.2*((32.2*($B3^2))+(2*($A$6)*($A$3^2))))</f>
-        <v>1536.126313718768</v>
-      </c>
-      <c r="F3">
-        <f>32.2*B3</f>
+      <c r="D4">
+        <f>$A$4^2</f>
+        <v>2304</v>
+      </c>
+      <c r="E4">
+        <f>SQRT($A$4^4-32.2*((32.2*($B4^2))+(2*($A$7)*($A$4^2))))</f>
+        <v>2066.0919534231771</v>
+      </c>
+      <c r="F4">
+        <f>32.2*B4</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="H3">
-        <f>DEGREES(ATAN((D3+E3)/F3))</f>
-        <v>89.443384485850814</v>
-      </c>
-      <c r="I3">
-        <f>DEGREES(ATAN((D3-E3)/F3))</f>
-        <v>82.42651315999322</v>
-      </c>
-      <c r="J3">
-        <f>((2*$A$3*SIN(RADIANS(I3)))/32.2)/2</f>
-        <v>1.298202971597098</v>
-      </c>
-      <c r="L3">
+      <c r="H4">
+        <f>DEGREES(ATAN((D4+E4)/F4))</f>
+        <v>89.577837095130079</v>
+      </c>
+      <c r="I4">
+        <f>DEGREES(ATAN((D4-E4)/F4))</f>
+        <v>82.292060550713956</v>
+      </c>
+      <c r="K4">
+        <f>(2*$A$4*SIN(RADIANS(I4)))/32.2</f>
+        <v>2.9544286920681371</v>
+      </c>
+      <c r="L4">
+        <f>B4/($A$4*(COS(I4*3.14159/180)))</f>
+        <v>0.15532808153639766</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D52" si="0">$A$3^2</f>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E52" si="1">SQRT($A$3^4-32.2*((32.2*($B4^2))+(2*($A$6)*($A$3^2))))</f>
-        <v>1535.1135240428348</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F52" si="2">32.2*B4</f>
+      <c r="D5">
+        <f t="shared" ref="D5:D53" si="0">$A$4^2</f>
+        <v>2304</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E53" si="1">SQRT($A$4^4-32.2*((32.2*($B5^2))+(2*($A$7)*($A$4^2))))</f>
+        <v>2065.339061752331</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F53" si="2">32.2*B5</f>
         <v>64.400000000000006</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H32" si="3">DEGREES(ATAN((D4+E4)/F4))</f>
-        <v>88.886533859622617</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I32" si="4">DEGREES(ATAN((D4-E4)/F4))</f>
-        <v>75.168070239454522</v>
-      </c>
-      <c r="L4">
+      <c r="H5">
+        <f t="shared" ref="H5:H33" si="3">DEGREES(ATAN((D5+E5)/F5))</f>
+        <v>89.155574564290589</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I33" si="4">DEGREES(ATAN((D5-E5)/F5))</f>
+        <v>74.899029534786564</v>
+      </c>
+      <c r="J5">
+        <f>ABS((ABS(I5-I4)+ABS(I5-I6))/2)</f>
+        <v>7.1118818149800092</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K53" si="5">(2*$A$4*SIN(RADIANS(I5)))/32.2</f>
+        <v>2.8784145640666283</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L53" si="6">B5/($A$4*(COS(I5*3.14159/180)))</f>
+        <v>0.15993535378502702</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1533.42405475433</v>
-      </c>
-      <c r="F5">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2064.0836320265707</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
         <v>96.600000000000009</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>88.329212089981525</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>68.472197396370291</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1531.0556657741779</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>128.80000000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>87.771181297005711</v>
+        <v>88.733112565597892</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>62.483937406052057</v>
+        <v>68.068296920753937</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J52" si="7">ABS((ABS(I6-I5)+ABS(I6-I7))/2)</f>
+        <v>6.477130827880309</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>2.7656041613254509</v>
       </c>
       <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0.16733509247188283</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>1528.0052001545057</v>
+        <v>2062.3247464936262</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>87.212200802478577</v>
+        <v>88.310350824031829</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>57.250121405547034</v>
+        <v>61.944767879025946</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>5.7465815621550789</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2.6310398619946436</v>
       </c>
       <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.17718308658009918</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1524.2685628521015</v>
+        <v>2060.0611155982729</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>193.20000000000002</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>86.652026149068107</v>
+        <v>87.887188411581818</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>52.746679205927414</v>
+        <v>56.575133796443779</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>5.0047930237179692</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>2.4882749145520782</v>
       </c>
       <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.18910385205624991</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>1519.8406928685686</v>
+        <v>2057.291073231982</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>225.40000000000003</v>
+        <v>193.20000000000002</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>86.090408076967634</v>
+        <v>87.463523523405513</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>48.909591923032373</v>
+        <v>51.935181831590008</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>4.307193522520592</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>2.3472708299635707</v>
       </c>
       <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.20274002231635502</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8</v>
-      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>1514.7155283086033</v>
+        <v>2054.0125705554969</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>257.60000000000002</v>
+        <v>225.40000000000003</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>85.527091445620044</v>
+        <v>87.039253248597404</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>45.658833720089575</v>
+        <v>47.960746751402596</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>3.6817649999892588</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>2.2142198184868143</v>
       </c>
       <c r="L10">
+        <f t="shared" si="6"/>
+        <v>0.2177786738749295</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M52" si="5">SQRT(L10^2-$A$6^2)</f>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="N10">
-        <f>DEGREES(ATAN((4*$A$6)/(2*M10)))</f>
-        <v>74.53633809338055</v>
-      </c>
-      <c r="O10">
-        <f>SQRT((M10^2*32.2)/($M10*SIN(2*RADIANS($N10))-2*$A$6*COS(RADIANS(N10))^2))</f>
-        <v>22.029525641738182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1508.8859637822902</v>
+        <v>2050.2231683404616</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>289.8</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>84.961814086892346</v>
+        <v>86.614273334098144</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>42.913169564205845</v>
+        <v>44.57165183161149</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>3.1371205202481462</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>2.0923250049432212</v>
       </c>
       <c r="L11">
+        <f t="shared" si="6"/>
+        <v>0.23395956053108657</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N53" si="8">SQRT(M11^2-$A$7^2)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="O11">
+        <f>DEGREES(ATAN((4*$A$7)/(2*N11)))</f>
+        <v>74.53633809338055</v>
+      </c>
+      <c r="P11">
+        <f>SQRT((N11^2*32.2)/($N11*SIN(2*RADIANS($O11))-2*$A$7*COS(RADIANS(O11))^2))</f>
+        <v>22.029525641738182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="N11">
-        <f>DEGREES(ATAN((4*$A$6)/(2*M11)))</f>
-        <v>67.998286325550183</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ref="O11:O52" si="6">SQRT((M11^2*32.2)/($M11*SIN(2*RADIANS($N11))-2*$A$6*COS(RADIANS(N11))^2))</f>
-        <v>22.899781658347752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>10</v>
-      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1502.3437994344738</v>
+        <v>2045.9200277625712</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>322</v>
+        <v>289.8</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>84.394305574460887</v>
+        <v>86.188477940191902</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>40.59771462409779</v>
+        <v>41.686505710906303</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>2.6706955094931111</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>1.9827711447930731</v>
       </c>
       <c r="L12">
+        <f t="shared" si="6"/>
+        <v>0.25107283583836881</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="O12">
+        <f>DEGREES(ATAN((4*$A$7)/(2*N12)))</f>
+        <v>67.998286325550183</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P53" si="9">SQRT((N12^2*32.2)/($N12*SIN(2*RADIANS($O12))-2*$A$7*COS(RADIANS(O12))^2))</f>
+        <v>22.899781658347752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>7.1414284285428504</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N52" si="7">DEGREES(ATAN((4*$A$6)/(2*M12)))</f>
-        <v>62.973779346894062</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>23.83484843669034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>11</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>1495.0796807191282</v>
+        <v>2041.0998995639582</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>354.20000000000005</v>
+        <v>322</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>83.824285892145696</v>
+        <v>85.761759385933402</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>38.646906398702811</v>
+        <v>39.230260812625268</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>2.2746606513884799</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>1.8855309378146696</v>
       </c>
       <c r="L13">
+        <f t="shared" si="6"/>
+        <v>0.26895222192232709</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O53" si="10">DEGREES(ATAN((4*$A$7)/(2*N13)))</f>
+        <v>62.973779346894062</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="9"/>
+        <v>23.83484843669034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
-        <v>58.78030155263162</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>24.827404213892354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>12</v>
-      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>1487.0830278431702</v>
+        <v>2035.7591114864254</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>386.40000000000003</v>
+        <v>354.20000000000005</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>83.251463981413337</v>
+        <v>85.334007882719135</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>37.004973182115933</v>
+        <v>37.137184408129343</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>1.9394674515801533</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>1.7999269116573935</v>
       </c>
       <c r="L14">
+        <f t="shared" si="6"/>
+        <v>0.28746712185059015</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="10"/>
+        <v>58.78030155263162</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>24.827404213892354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
-        <v>9.7467943448089631</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>55.154379867229714</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>25.870832997798892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>13</v>
-      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>1478.3419535747507</v>
+        <v>2029.8935538594135</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>418.6</v>
+        <v>386.40000000000003</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>82.67553614514209</v>
+        <v>84.905111254064309</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>35.625219620864307</v>
+        <v>35.351325909464961</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>1.655691640793659</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1.7249843283597355</v>
       </c>
       <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0.30651532061439429</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>9.7467943448089631</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>55.154379867229714</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>25.870832997798892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>10.954451150103322</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
-        <v>51.958213116777969</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>26.959228475607386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>14</v>
-      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1468.8431678362433</v>
+        <v>2023.4986632068724</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>450.80000000000007</v>
+        <v>418.6</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>82.096184280874326</v>
+        <v>84.474954639464357</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>34.468866896203672</v>
+        <v>33.825801126542025</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>1.4148474561965756</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1.6596365620776485</v>
       </c>
       <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.32601685128875463</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>10.954451150103322</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>51.958213116777969</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>26.959228475607386</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>12.124355652982141</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>49.106605350869096</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>28.087363706834434</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>15</v>
-      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1458.5718671698048</v>
+        <v>2016.5694037151313</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>483.00000000000006</v>
+        <v>450.80000000000007</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>81.513073911985771</v>
+        <v>84.04342018000618</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>33.503819566114245</v>
+        <v>32.52163099707181</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>1.2096471657914005</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>1.6028362059383383</v>
       </c>
       <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.34590908724803465</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>12.124355652982141</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="10"/>
+        <v>49.106605350869096</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>28.087363706834434</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="5"/>
-        <v>13.266499161421599</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
-        <v>46.54095209118789</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>29.250641018617014</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>16</v>
-      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>1447.5116067580291</v>
+        <v>2009.1002463789605</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>515.20000000000005</v>
+        <v>483.00000000000006</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>80.925851979247895</v>
+        <v>83.610386683140803</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>32.703525751408911</v>
+        <v>31.406506794959224</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>1.0339912650742029</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>1.5536096257590106</v>
       </c>
       <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0.36614291590378328</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>13.266499161421599</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>46.54095209118789</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>29.250641018617014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
-        <v>14.387494569938159</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>44.217950544908774</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="6"/>
-        <v>30.445032435522219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>17</v>
-      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>1435.6441521836846</v>
+        <v>2001.0851456147486</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>547.40000000000009</v>
+        <v>515.20000000000005</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>80.334144347839654</v>
+        <v>83.17572926373343</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>32.045990704119916</v>
+        <v>30.453648466923404</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0.88284535057926838</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>1.5110792058075189</v>
       </c>
       <c r="L19">
+        <f t="shared" si="6"/>
+        <v>0.38667979463089547</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>14.387494569938159</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="10"/>
+        <v>44.217950544908774</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>30.445032435522219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
-        <v>15.491933384829668</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>42.103998659695506</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>31.667017541915751</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>18</v>
-      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>1422.9493074945469</v>
+        <v>1992.5175130974383</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>579.6</v>
+        <v>547.40000000000009</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>79.737552975575511</v>
+        <v>82.73931895815889</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>31.512952531557733</v>
+        <v>29.640816093800687</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0.752082633797162</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>1.4744680184202763</v>
       </c>
       <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0.40748949832325826</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>15.491933384829668</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>42.103998659695506</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>31.667017541915751</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
-        <v>16.583123951777001</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>40.172119906849431</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="6"/>
-        <v>32.913523056640408</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>19</v>
-      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>1409.404715367169</v>
+        <v>1983.3901885408225</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>611.80000000000007</v>
+        <v>579.6</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>79.135652676423476</v>
+        <v>82.301022307804175</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>31.089206754744612</v>
+        <v>28.94948319932908</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0.63832878524701187</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>1.4430955327306534</v>
       </c>
       <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0.42854839821512863</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>16.583123951777001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>40.172119906849431</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="9"/>
+        <v>32.913523056640408</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="5"/>
-        <v>17.663521732655695</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>38.400129866246424</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="6"/>
-        <v>34.181866537683405</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>20</v>
-      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>1394.9856241908769</v>
+        <v>1973.695407098066</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>644</v>
+        <v>611.80000000000007</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>78.527987398576315</v>
+        <v>81.860700907861414</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>30.762058820612417</v>
+        <v>28.364158523306664</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0.53882394843737202</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>1.4163692431863579</v>
       </c>
       <c r="L22">
+        <f t="shared" si="6"/>
+        <v>0.44983814486649171</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>17.663521732655695</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>38.400129866246424</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>34.181866537683405</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="5"/>
-        <v>18.734993995195193</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>36.769465004884587</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="6"/>
-        <v>35.469705383608705</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>21</v>
-      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>1379.6646156581717</v>
+        <v>1963.4247630097773</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>676.2</v>
+        <v>644</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>77.914065917448099</v>
+        <v>81.418210916734395</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>30.520882905473911</v>
+        <v>27.871835302454336</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0.45130611055309267</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>1.3937748908855365</v>
       </c>
       <c r="L23">
+        <f t="shared" si="6"/>
+        <v>0.4713446576594113</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>18.734993995195193</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>36.769465004884587</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>35.469705383608705</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="5"/>
-        <v>19.798989873223331</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>35.264389682754654</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="6"/>
-        <v>36.774991502378349</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>22</v>
-      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1363.4112848657262</v>
+        <v>1952.5691690693059</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>708.40000000000009</v>
+        <v>676.2</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>77.293356819689549</v>
+        <v>80.973402520721535</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>30.356767400240578</v>
+        <v>27.461546302200478</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0.37391521519200666</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>1.3748666761050703</v>
       </c>
       <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0.4930573469947323</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>19.798989873223331</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>35.264389682754654</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>36.774991502378349</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>22</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="5"/>
-        <v>20.85665361461421</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="7"/>
-        <v>33.87143263606643</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="6"/>
-        <v>38.095931541307671</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>23</v>
-      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>1346.1918628855287</v>
+        <v>1941.118811407483</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>740.6</v>
+        <v>708.40000000000009</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>76.665282622851493</v>
+        <v>80.526119347859805</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>30.262230441295557</v>
+        <v>27.124004872070323</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>0.30511553097355382</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>1.3592581398474917</v>
       </c>
       <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0.51496851384714915</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>20.85665361461421</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>33.87143263606643</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>38.095931541307671</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>23</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="5"/>
-        <v>21.908902300206645</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>32.578970392804123</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="6"/>
-        <v>39.430952309068068</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>24</v>
-      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1327.9687690978319</v>
+        <v>1929.0630990198324</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>772.80000000000007</v>
+        <v>740.6</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>76.029212834177031</v>
+        <v>80.076197823893679</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>30.230991874134922</v>
+        <v>26.851315240253371</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0.2436333129997319</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>1.3466139946455602</v>
       </c>
       <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.53707288531708719</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>21.908902300206645</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>32.578970392804123</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>39.430952309068068</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>24</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="5"/>
-        <v>22.956480566497994</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="7"/>
-        <v>31.376909380994121</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
-        <v>40.778670895457104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>25</v>
-      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>1308.7000770609018</v>
+        <v>1916.3906073658366</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>805.00000000000011</v>
+        <v>772.80000000000007</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>75.3844556976603</v>
+        <v>79.623466462241112</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>30.257790759548431</v>
+        <v>26.636738246070859</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0.18840693078669091</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>1.3366429727705345</v>
       </c>
       <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.55936725528022435</v>
+      </c>
+      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>22.956480566497994</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>31.376909380994121</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>40.778670895457104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>25</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="7"/>
-        <v>30.256437163529263</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="6"/>
-        <v>42.137868954184192</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>26</v>
-      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>1288.3388730063261</v>
+        <v>1903.0890152591392</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>837.2</v>
+        <v>805.00000000000011</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>74.73024830597268</v>
+        <v>79.167745078528739</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>30.338239853519536</v>
+        <v>26.474501378679989</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.13854700264734987</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>1.3290916529162218</v>
       </c>
       <c r="L28">
+        <f t="shared" si="6"/>
+        <v>0.58185020703042534</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>30.256437163529263</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="9"/>
+        <v>42.137868954184192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="5"/>
-        <v>25.03996805109783</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>29.209823860627374</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
-        <v>43.507470622871203</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>27</v>
-      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>1266.8324797301379</v>
+        <v>1889.1450341358125</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>869.40000000000009</v>
+        <v>837.2</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>74.065744655907992</v>
+        <v>78.708843918716056</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>30.468710424632135</v>
+        <v>26.359644240776159</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>9.3304493052766446E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>1.3237391777745173</v>
       </c>
       <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.6045219006209599</v>
+      </c>
+      <c r="M29">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>25.03996805109783</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>29.209823860627374</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="9"/>
+        <v>43.507470622871203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>27</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="5"/>
-        <v>26.076809620810597</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="7"/>
-        <v>28.23026112500165</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="6"/>
-        <v>44.886523590048725</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>28</v>
-      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>1244.1215100219151</v>
+        <v>1874.5443286302939</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>901.60000000000014</v>
+        <v>869.40000000000009</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>73.390001092061411</v>
+        <v>78.246562687965678</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>30.646242375865071</v>
+        <v>26.287892392574456</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>5.2045119012198882E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>1.320392757940869</v>
       </c>
       <c r="L30">
+        <f t="shared" si="6"/>
+        <v>0.62738391195453636</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>26.076809620810597</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>28.23026112500165</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>44.886523590048725</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>28</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="5"/>
-        <v>27.110883423451916</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="7"/>
-        <v>27.311729924029198</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
-        <v>46.274182866907537</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>29</v>
-      </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>1220.1387018282842</v>
+        <v>1859.2714271993748</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>933.80000000000007</v>
+        <v>901.60000000000014</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>72.701958397778085</v>
+        <v>77.780689465174717</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>30.868475987383405</v>
+        <v>26.255554002751762</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>1.8109643432108413E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>1.3188838571010451</v>
       </c>
       <c r="L31">
+        <f t="shared" si="6"/>
+        <v>0.65043911394625009</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>27.110883423451916</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>27.311729924029198</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>46.274182866907537</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>29</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="5"/>
-        <v>28.142494558940577</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="7"/>
-        <v>26.448890873897117</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="6"/>
-        <v>47.66969687338068</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>30</v>
-      </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
+        <v>2304</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>1194.8074705571648</v>
+        <v>1843.3096213061983</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>966.00000000000011</v>
+        <v>933.80000000000007</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>72.000419531106971</v>
+        <v>77.3109994853682</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>31.133602775289354</v>
+        <v>26.259434899793284</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>2.0607267393527806E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>1.3190649609399183</v>
       </c>
       <c r="L32">
+        <f t="shared" si="6"/>
+        <v>0.67369159257501554</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>28.142494558940577</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>26.448890873897117</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>47.66969687338068</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>30</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="5"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1826.6408513990921</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>966.00000000000011</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>76.837253768857494</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>26.296768537538817</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>5.2861606796417604E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>1.3208068430012645</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0.69714659256279476</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
         <v>29.171904291629644</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="7"/>
+      <c r="O33">
+        <f t="shared" si="10"/>
         <v>25.636992523004285</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
+      <c r="P33">
+        <f t="shared" si="9"/>
         <v>49.072395498895304</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>31</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>1168.0400899366471</v>
-      </c>
-      <c r="F33">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1809.2455775819931</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="2"/>
         <v>998.2</v>
       </c>
-      <c r="H33">
-        <f t="shared" ref="H33:H52" si="8">DEGREES(ATAN((D33+E33)/F33))</f>
-        <v>71.284021629656706</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ref="I33:I52" si="9">DEGREES(ATAN((D33-E33)/F33))</f>
-        <v>31.440334055765671</v>
-      </c>
-      <c r="L33">
+      <c r="H34">
+        <f t="shared" ref="H34:H53" si="11">DEGREES(ATAN((D34+E34)/F34))</f>
+        <v>76.359197572036265</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I53" si="12">DEGREES(ATAN((D34-E34)/F34))</f>
+        <v>26.365158113386119</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>8.2880055526164398E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>1.323996252327333</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>0.72081048893614019</v>
+      </c>
+      <c r="M34">
         <v>31</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="5"/>
+      <c r="N34" s="4">
+        <f t="shared" si="8"/>
         <v>30.199337741082999</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="7"/>
+      <c r="O34" s="4">
+        <f t="shared" si="10"/>
         <v>24.871794114543967</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
+      <c r="P34" s="4">
+        <f t="shared" si="9"/>
         <v>50.48167984526664</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>32</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>1139.7353779273549</v>
-      </c>
-      <c r="F34">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1791.1026324585646</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="2"/>
         <v>1030.4000000000001</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>70.551200363579909</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="9"/>
-        <v>31.787886914746299</v>
-      </c>
-      <c r="L34">
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>75.876558629735044</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>26.462528648591146</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>0.11096458893893946</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1.32853395886861</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0.74469078195080185</v>
+      </c>
+      <c r="M35">
         <v>32</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="5"/>
+      <c r="N35">
+        <f t="shared" si="8"/>
         <v>31.22498999199199</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
+      <c r="O35">
+        <f t="shared" si="10"/>
         <v>24.149500158183997</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
+      <c r="P35">
+        <f t="shared" si="9"/>
         <v>51.897013401543639</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>33</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1109.775712339755</v>
-      </c>
-      <c r="F35">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1772.1890531204619</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="2"/>
         <v>1062.6000000000001</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>69.800143906161281</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="9"/>
-        <v>32.17598853804207</v>
-      </c>
-      <c r="L35">
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>75.38904515293936</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="12"/>
+        <v>26.587087291263998</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>0.13738090613946596</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1.3343331028182126</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0.76879611388927083</v>
+      </c>
+      <c r="M36">
         <v>33</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="5"/>
+      <c r="N36">
+        <f t="shared" si="8"/>
         <v>32.249030993194197</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="7"/>
+      <c r="O36">
+        <f t="shared" si="10"/>
         <v>23.466704721091798</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
+      <c r="P36">
+        <f t="shared" si="9"/>
         <v>53.317914437832243</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>34</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1078.023122061494</v>
-      </c>
-      <c r="F36">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1752.4798886149877</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="2"/>
         <v>1094.8000000000002</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>69.028732560209434</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>32.604901438731005</v>
-      </c>
-      <c r="L36">
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>74.896343538070369</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="12"/>
+        <v>26.737290460870078</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>0.16236472412091274</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>1.3413178030078472</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0.79313630714613326</v>
+      </c>
+      <c r="M37">
         <v>34</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="5"/>
+      <c r="N37">
+        <f t="shared" si="8"/>
         <v>33.271609519228249</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="7"/>
+      <c r="O37">
+        <f t="shared" si="10"/>
         <v>22.820343779504636</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
+      <c r="P37">
+        <f t="shared" si="9"/>
         <v>54.743949437357927</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>35</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>1044.3140771335079</v>
-      </c>
-      <c r="F37">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1731.9479784335324</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>1127</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
-        <v>68.234458158251357</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="9"/>
-        <v>33.075474315768858</v>
-      </c>
-      <c r="L37">
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>74.398115734514406</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="12"/>
+        <v>26.911816739505824</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>0.18612709288961504</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>1.3494219873169462</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.81772242385817351</v>
+      </c>
+      <c r="M38">
         <v>35</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="5"/>
+      <c r="N38">
+        <f t="shared" si="8"/>
         <v>34.292856398964496</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="7"/>
+      <c r="O38">
+        <f t="shared" si="10"/>
         <v>22.207654298596484</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
+      <c r="P38">
+        <f t="shared" si="9"/>
         <v>56.174727413668876</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>36</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1008.4524042805444</v>
-      </c>
-      <c r="F38">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1710.5636965632116</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="2"/>
         <v>1159.2</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
-        <v>67.414314272947934</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="9"/>
-        <v>33.589226578801579</v>
-      </c>
-      <c r="L38">
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>73.893996205100208</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="12"/>
+        <v>27.109544646649308</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0.20885894213697398</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>1.358588414805511</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.84256684817037664</v>
+      </c>
+      <c r="M39">
         <v>36</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="5"/>
+      <c r="N39">
+        <f t="shared" si="8"/>
         <v>35.312887166019152</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="7"/>
+      <c r="O39">
+        <f t="shared" si="10"/>
         <v>21.626138960127285</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
+      <c r="P39">
+        <f t="shared" si="9"/>
         <v>57.609894983414087</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>37</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>970.19942882853229</v>
-      </c>
-      <c r="F39">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1688.2946543776059</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="2"/>
         <v>1191.4000000000001</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>66.564643164462041</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="9"/>
-        <v>34.148479858329004</v>
-      </c>
-      <c r="L39">
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>73.383588399011273</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="12"/>
+        <v>27.329534623779772</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.23073503365327319</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>1.3687678651408399</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.86768339310943454</v>
+      </c>
+      <c r="M40">
         <v>37</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="5"/>
+      <c r="N40">
+        <f t="shared" si="8"/>
         <v>36.331804249169899</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="7"/>
+      <c r="O40">
+        <f t="shared" si="10"/>
         <v>21.073535654265658</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="6"/>
+      <c r="P40">
+        <f t="shared" si="9"/>
         <v>59.049132085069644</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>38</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>929.2598838318645</v>
-      </c>
-      <c r="F40">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1665.105354024183</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="2"/>
         <v>1223.6000000000001</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="8"/>
-        <v>65.680916593575446</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="9"/>
-        <v>34.756558757542727</v>
-      </c>
-      <c r="L40">
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>72.866460637162319</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="12"/>
+        <v>27.571014713955854</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.25191746714594387</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>1.3799184760230367</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.89308743502140386</v>
+      </c>
+      <c r="M41">
         <v>38</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="5"/>
+      <c r="N41">
+        <f t="shared" si="8"/>
         <v>37.349698793966198</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="7"/>
+      <c r="O41">
+        <f t="shared" si="10"/>
         <v>20.54779100789791</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="6"/>
+      <c r="P41">
+        <f t="shared" si="9"/>
         <v>60.492148250826737</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>39</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>885.26112063007179</v>
-      </c>
-      <c r="F41">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1640.9567818806195</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="2"/>
         <v>1255.8000000000002</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>64.75741179999055</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="9"/>
-        <v>35.418099043052649</v>
-      </c>
-      <c r="L41">
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>72.342141284971547</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="12"/>
+        <v>27.833369558071659</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.27255886895104098</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>1.3920052139047461</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.91879607968813748</v>
+      </c>
+      <c r="M42">
         <v>39</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="5"/>
+      <c r="N42">
+        <f t="shared" si="8"/>
         <v>38.366652186501753</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="7"/>
+      <c r="O42">
+        <f t="shared" si="10"/>
         <v>20.047037346493077</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="6"/>
+      <c r="P42">
+        <f t="shared" si="9"/>
         <v>61.938679353050453</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>40</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>837.7212494017391</v>
-      </c>
-      <c r="F42">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1615.8059289407252</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="2"/>
         <v>1288</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="8"/>
-        <v>63.786713943459198</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="9"/>
-        <v>36.139531563192513</v>
-      </c>
-      <c r="L42">
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>71.810113054793774</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>28.116132451857936</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.29280538247123289</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>1.404999467533429</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.9448283656537857</v>
+      </c>
+      <c r="M43">
         <v>40</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="5"/>
+      <c r="N43">
+        <f t="shared" si="8"/>
         <v>39.382737335030434</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="7"/>
+      <c r="O43">
+        <f t="shared" si="10"/>
         <v>19.569572587299678</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="6"/>
+      <c r="P43">
+        <f t="shared" si="9"/>
         <v>63.388484758668895</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>41</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>785.99799726157744</v>
-      </c>
-      <c r="F43">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1589.6052214307801</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="2"/>
         <v>1320.2</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="8"/>
-        <v>62.758915764018951</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="9"/>
-        <v>36.929870796347849</v>
-      </c>
-      <c r="L43">
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>71.269806237352682</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="12"/>
+        <v>28.418980323014125</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.31279957582983364</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>1.4188787579173932</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.97120551208116335</v>
+      </c>
+      <c r="M44">
         <v>41</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="5"/>
+      <c r="N44">
+        <f t="shared" si="8"/>
         <v>40.39801975344831</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="7"/>
+      <c r="O44">
+        <f t="shared" si="10"/>
         <v>19.113842643556296</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="6"/>
+      <c r="P44">
+        <f t="shared" si="9"/>
         <v>64.841344834912221</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>42</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>729.20170851363923</v>
-      </c>
-      <c r="F44">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1562.3018402344662</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="2"/>
         <v>1352.4</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="8"/>
-        <v>61.660253249235609</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="9"/>
-        <v>37.802068958790009</v>
-      </c>
-      <c r="L44">
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>70.720590604508004</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
+        <v>28.741731603517604</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.33268338670165676</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>1.4336265624516451</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.99795122077303478</v>
+      </c>
+      <c r="M45">
         <v>42</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="5"/>
+      <c r="N45">
+        <f t="shared" si="8"/>
         <v>41.41255848169731</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="7"/>
+      <c r="O45">
+        <f t="shared" si="10"/>
         <v>18.678425986451597</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="6"/>
+      <c r="P45">
+        <f t="shared" si="9"/>
         <v>66.297058758288827</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>43</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>666.03583364501537</v>
-      </c>
-      <c r="F45">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>1533.8369013685906</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="2"/>
         <v>1384.6000000000001</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="8"/>
-        <v>60.470598888105776</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="9"/>
-        <v>38.775513857457462</v>
-      </c>
-      <c r="L45">
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>70.161765649145821</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
+        <v>29.084347096417439</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0.3526012379545751</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>1.4492322554022392</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>1.0250920450534267</v>
+      </c>
+      <c r="M46">
         <v>43</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="5"/>
+      <c r="N46">
+        <f t="shared" si="8"/>
         <v>42.426406871192853</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="7"/>
+      <c r="O46">
+        <f t="shared" si="10"/>
         <v>18.262020066776483</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="6"/>
+      <c r="P46">
+        <f t="shared" si="9"/>
         <v>67.755442585817406</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>44</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>594.47342387966387</v>
-      </c>
-      <c r="F46">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1504.1444611472659</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="2"/>
         <v>1416.8000000000002</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="8"/>
-        <v>59.158366806501114</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="9"/>
-        <v>39.881115996854007</v>
-      </c>
-      <c r="L46">
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>69.592548723928374</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
+        <v>29.446934079426754</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0.37270348322862823</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>1.4656911720787356</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>1.052657842323085</v>
+      </c>
+      <c r="M47">
         <v>44</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="5"/>
+      <c r="N47">
+        <f t="shared" si="8"/>
         <v>43.439613257946945</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
+      <c r="O47">
+        <f t="shared" si="10"/>
         <v>17.863429343895213</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="6"/>
+      <c r="P47">
+        <f t="shared" si="9"/>
         <v>69.216327553547643</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>45</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>510.99891555580649</v>
-      </c>
-      <c r="F47">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1473.150297831148</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="2"/>
         <v>1449.0000000000002</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="8"/>
-        <v>57.668545500589815</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="9"/>
-        <v>41.173269059601864</v>
-      </c>
-      <c r="L47">
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>69.012060497316966</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
+        <v>29.829754062874695</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0.39315038334711616</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>1.4830048102869795</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>1.0806823327428663</v>
+      </c>
+      <c r="M48">
         <v>45</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="5"/>
+      <c r="N48">
+        <f t="shared" si="8"/>
         <v>44.45222154178574</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="7"/>
+      <c r="O48">
+        <f t="shared" si="10"/>
         <v>17.481554707636992</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="6"/>
+      <c r="P48">
+        <f t="shared" si="9"/>
         <v>70.679558572475528</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>46</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>408.37170776047878</v>
-      </c>
-      <c r="F48">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1440.7704050264217</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
         <v>1481.2</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="8"/>
-        <v>55.887318925888735</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="9"/>
-        <v>42.765222865225994</v>
-      </c>
-      <c r="L48">
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>68.41930694499375</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="12"/>
+        <v>30.233234846120986</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>0.41411687984209955</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>1.5011811907102446</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>1.1092037943513604</v>
+      </c>
+      <c r="M49">
         <v>46</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="5"/>
+      <c r="N49">
+        <f t="shared" si="8"/>
         <v>45.464271686677222</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="7"/>
+      <c r="O49">
+        <f t="shared" si="10"/>
         <v>17.115384110405316</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="6"/>
+      <c r="P49">
+        <f t="shared" si="9"/>
         <v>72.144992896250258</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>47</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>265.21940294633464</v>
-      </c>
-      <c r="F49">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1406.9091086491692</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="2"/>
         <v>1513.4</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="8"/>
-        <v>53.47702289834708</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="9"/>
-        <v>44.994121734667765</v>
-      </c>
-      <c r="L49">
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>67.813156810455936</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
+        <v>30.657987822558894</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0.43579853297698179</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>1.5202354086991143</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>1.1382659360470189</v>
+      </c>
+      <c r="M50">
         <v>47</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="5"/>
+      <c r="N50">
+        <f t="shared" si="8"/>
         <v>46.475800154489001</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="7"/>
+      <c r="O50">
+        <f t="shared" si="10"/>
         <v>16.763984253356522</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="6"/>
+      <c r="P50">
+        <f t="shared" si="9"/>
         <v>73.612498938699275</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>48</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E50" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F50">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1371.45668542612</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="2"/>
         <v>1545.6000000000001</v>
       </c>
-      <c r="H50" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L50">
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>67.192313057761936</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="12"/>
+        <v>31.10483191207495</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>0.45841914859411936</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>1.5401904250704224</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>1.1679190059142224</v>
+      </c>
+      <c r="M51">
         <v>48</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="5"/>
+      <c r="N51">
+        <f t="shared" si="8"/>
         <v>47.486840282335066</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="7"/>
+      <c r="O51">
+        <f t="shared" si="10"/>
         <v>16.426493192823195</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="6"/>
+      <c r="P51">
+        <f t="shared" si="9"/>
         <v>75.08195522227696</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>49</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E51" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F51">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>1334.2863111041795</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="2"/>
         <v>1577.8000000000002</v>
       </c>
-      <c r="H51" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L51">
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>66.555276234408851</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="12"/>
+        <v>31.574826119747133</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0.48224086511817177</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>1.5610781653163643</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>1.1982212159903696</v>
+      </c>
+      <c r="M52">
         <v>49</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="5"/>
+      <c r="N52">
+        <f t="shared" si="8"/>
         <v>48.497422611928563</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="7"/>
+      <c r="O52">
+        <f t="shared" si="10"/>
         <v>16.102113751986014</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="6"/>
+      <c r="P52">
+        <f t="shared" si="9"/>
         <v>76.553249441156993</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>50</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1778.3089000000002</v>
-      </c>
-      <c r="E52" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F52">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>1295.2500916811393</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="2"/>
         <v>1610.0000000000002</v>
       </c>
-      <c r="H52" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I52" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L52">
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>65.90029675201005</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="12"/>
+        <v>32.069313642311293</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>1.5829410290103874</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>1.2292406000901648</v>
+      </c>
+      <c r="M53">
         <v>50</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="5"/>
+      <c r="N53">
+        <f t="shared" si="8"/>
         <v>49.507575177946251</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="7"/>
+      <c r="O53">
+        <f t="shared" si="10"/>
         <v>15.79010763872629</v>
       </c>
-      <c r="O52">
-        <f t="shared" si="6"/>
+      <c r="P53">
+        <f t="shared" si="9"/>
         <v>78.026277624913021</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
+  <conditionalFormatting sqref="J5:J52">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{B1F976BE-0061-4D0B-942B-3F6EEF76A521}"/>
+    <hyperlink ref="R3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
